--- a/results/mp/logistic/corona/confidence/126/stop-words-masking-0.15/avg_0.003_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/126/stop-words-masking-0.15/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,28 +43,28 @@
     <t>crude</t>
   </si>
   <si>
+    <t>crisis</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crisis</t>
-  </si>
-  <si>
-    <t>warning</t>
+    <t>war</t>
+  </si>
+  <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>died</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
-    <t>war</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>die</t>
+    <t>falling</t>
   </si>
   <si>
     <t>drop</t>
@@ -73,12 +73,12 @@
     <t>sc</t>
   </si>
   <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>fears</t>
   </si>
   <si>
-    <t>panic</t>
-  </si>
-  <si>
     <t>low</t>
   </si>
   <si>
@@ -91,7 +91,7 @@
     <t>lower</t>
   </si>
   <si>
-    <t>risk</t>
+    <t>cut</t>
   </si>
   <si>
     <t>empty</t>
@@ -106,114 +106,114 @@
     <t>oil</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>co</t>
   </si>
   <si>
-    <t>19</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
     <t>special</t>
   </si>
   <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>good</t>
+    <t>thanks</t>
   </si>
   <si>
     <t>nice</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>confidence</t>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>friends</t>
   </si>
   <si>
     <t>better</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>join</t>
+    <t>gt</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>gt</t>
-  </si>
-  <si>
     <t>save</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
     <t>relief</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
+    <t>alert</t>
+  </si>
+  <si>
     <t>care</t>
   </si>
   <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
     <t>safety</t>
   </si>
   <si>
@@ -224,6 +224,9 @@
   </si>
   <si>
     <t>increase</t>
+  </si>
+  <si>
+    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -581,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -592,7 +595,7 @@
         <v>32</v>
       </c>
       <c r="J1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -700,13 +703,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8055555555555556</v>
+        <v>0.8116438356164384</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>237</v>
       </c>
       <c r="D4">
-        <v>29</v>
+        <v>237</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -718,19 +721,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>34</v>
       </c>
       <c r="K4">
-        <v>0.9</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L4">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="M4">
-        <v>108</v>
+        <v>24</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -742,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -750,13 +753,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7876712328767124</v>
+        <v>0.8</v>
       </c>
       <c r="C5">
-        <v>230</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>230</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -768,19 +771,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>35</v>
       </c>
       <c r="K5">
-        <v>0.8983050847457628</v>
+        <v>0.9152542372881356</v>
       </c>
       <c r="L5">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M5">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -792,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -800,13 +803,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.76</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C6">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D6">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -818,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>36</v>
       </c>
       <c r="K6">
-        <v>0.8392857142857143</v>
+        <v>0.9</v>
       </c>
       <c r="L6">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="M6">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -842,7 +845,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -850,13 +853,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7586206896551724</v>
+        <v>0.7631578947368421</v>
       </c>
       <c r="C7">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -868,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>37</v>
       </c>
       <c r="K7">
-        <v>0.8333333333333334</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L7">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="M7">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -892,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -900,7 +903,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7368421052631579</v>
+        <v>0.7567567567567568</v>
       </c>
       <c r="C8">
         <v>28</v>
@@ -918,19 +921,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K8">
-        <v>0.8276762402088773</v>
+        <v>0.8172323759791122</v>
       </c>
       <c r="L8">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="M8">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -942,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -950,13 +953,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7333333333333333</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="C9">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -968,31 +971,31 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>39</v>
       </c>
       <c r="K9">
-        <v>0.8076923076923077</v>
+        <v>0.8018867924528302</v>
       </c>
       <c r="L9">
+        <v>85</v>
+      </c>
+      <c r="M9">
+        <v>85</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q9">
         <v>21</v>
-      </c>
-      <c r="M9">
-        <v>21</v>
-      </c>
-      <c r="N9">
-        <v>1</v>
-      </c>
-      <c r="O9">
-        <v>0</v>
-      </c>
-      <c r="P9" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1000,13 +1003,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.7307692307692307</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="C10">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D10">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1018,19 +1021,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>40</v>
       </c>
       <c r="K10">
-        <v>0.8028169014084507</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L10">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="M10">
-        <v>114</v>
+        <v>46</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1042,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1050,13 +1053,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6756756756756757</v>
+        <v>0.575</v>
       </c>
       <c r="C11">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D11">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1068,19 +1071,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>41</v>
       </c>
       <c r="K11">
-        <v>0.8018867924528302</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L11">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="M11">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1092,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1100,13 +1103,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.576271186440678</v>
+        <v>0.559322033898305</v>
       </c>
       <c r="C12">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1118,19 +1121,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>42</v>
       </c>
       <c r="K12">
-        <v>0.7931034482758621</v>
+        <v>0.7872340425531915</v>
       </c>
       <c r="L12">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M12">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1142,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1150,13 +1153,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5714285714285714</v>
+        <v>0.544973544973545</v>
       </c>
       <c r="C13">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D13">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1168,19 +1171,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>43</v>
       </c>
       <c r="K13">
-        <v>0.7875</v>
+        <v>0.765625</v>
       </c>
       <c r="L13">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="M13">
-        <v>126</v>
+        <v>98</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1192,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1200,13 +1203,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5294117647058824</v>
+        <v>0.5290697674418605</v>
       </c>
       <c r="C14">
-        <v>27</v>
+        <v>273</v>
       </c>
       <c r="D14">
-        <v>27</v>
+        <v>273</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1218,19 +1221,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>24</v>
+        <v>243</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>44</v>
       </c>
       <c r="K14">
-        <v>0.7777777777777778</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="L14">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="M14">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1242,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>6</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1250,13 +1253,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.501937984496124</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="C15">
-        <v>259</v>
+        <v>26</v>
       </c>
       <c r="D15">
-        <v>259</v>
+        <v>26</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1268,19 +1271,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>257</v>
+        <v>25</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>45</v>
       </c>
       <c r="K15">
-        <v>0.7734375</v>
+        <v>0.75</v>
       </c>
       <c r="L15">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="M15">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1292,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1300,13 +1303,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4697986577181208</v>
+        <v>0.4630872483221476</v>
       </c>
       <c r="C16">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D16">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1318,19 +1321,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>46</v>
       </c>
       <c r="K16">
-        <v>0.7682926829268293</v>
+        <v>0.75</v>
       </c>
       <c r="L16">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="M16">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1342,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1350,13 +1353,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4266666666666667</v>
+        <v>0.4533333333333333</v>
       </c>
       <c r="C17">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D17">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1368,19 +1371,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>47</v>
       </c>
       <c r="K17">
-        <v>0.7575757575757576</v>
+        <v>0.75</v>
       </c>
       <c r="L17">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M17">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1392,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1424,13 +1427,13 @@
         <v>48</v>
       </c>
       <c r="K18">
-        <v>0.723404255319149</v>
+        <v>0.7439024390243902</v>
       </c>
       <c r="L18">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="M18">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1442,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>13</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1450,13 +1453,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.375</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C19">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1468,19 +1471,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K19">
-        <v>0.7222222222222222</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="L19">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M19">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1492,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1500,7 +1503,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2467532467532468</v>
+        <v>0.3454545454545455</v>
       </c>
       <c r="C20">
         <v>19</v>
@@ -1518,19 +1521,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>58</v>
+        <v>36</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>50</v>
       </c>
       <c r="K20">
-        <v>0.7142857142857143</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="L20">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="M20">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1542,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1550,13 +1553,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2444444444444444</v>
+        <v>0.3</v>
       </c>
       <c r="C21">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D21">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1568,19 +1571,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>51</v>
       </c>
       <c r="K21">
-        <v>0.6875</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="L21">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M21">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1592,7 +1595,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1600,13 +1603,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.2380952380952381</v>
+        <v>0.2063492063492063</v>
       </c>
       <c r="C22">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D22">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1618,19 +1621,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>52</v>
       </c>
       <c r="K22">
-        <v>0.6744186046511628</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L22">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="M22">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1642,7 +1645,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1650,13 +1653,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.1554959785522788</v>
+        <v>0.1313672922252011</v>
       </c>
       <c r="C23">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="D23">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1668,19 +1671,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="J23" s="1" t="s">
         <v>53</v>
       </c>
       <c r="K23">
-        <v>0.65</v>
+        <v>0.6984126984126984</v>
       </c>
       <c r="L23">
-        <v>221</v>
+        <v>44</v>
       </c>
       <c r="M23">
-        <v>221</v>
+        <v>44</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1692,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>119</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1700,13 +1703,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.07666666666666666</v>
+        <v>0.06333333333333334</v>
       </c>
       <c r="C24">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D24">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1718,19 +1721,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="J24" s="1" t="s">
         <v>54</v>
       </c>
       <c r="K24">
-        <v>0.65</v>
+        <v>0.675</v>
       </c>
       <c r="L24">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M24">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1742,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1750,37 +1753,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.0115979381443299</v>
+        <v>0.009822263797942002</v>
       </c>
       <c r="C25">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="D25">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E25">
-        <v>0.08</v>
+        <v>0.19</v>
       </c>
       <c r="F25">
-        <v>0.92</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>3068</v>
+        <v>2117</v>
       </c>
       <c r="J25" s="1" t="s">
         <v>55</v>
       </c>
       <c r="K25">
-        <v>0.6285714285714286</v>
+        <v>0.6441176470588236</v>
       </c>
       <c r="L25">
-        <v>22</v>
+        <v>219</v>
       </c>
       <c r="M25">
-        <v>22</v>
+        <v>219</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1792,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>13</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1800,37 +1803,37 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01027557216254087</v>
+        <v>0.009674298613350531</v>
       </c>
       <c r="C26">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="D26">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="E26">
-        <v>0.08</v>
+        <v>0.17</v>
       </c>
       <c r="F26">
-        <v>0.92</v>
+        <v>0.83</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>2119</v>
+        <v>3071</v>
       </c>
       <c r="J26" s="1" t="s">
         <v>56</v>
       </c>
       <c r="K26">
-        <v>0.5957446808510638</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="L26">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="M26">
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1842,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>38</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1850,13 +1853,13 @@
         <v>57</v>
       </c>
       <c r="K27">
-        <v>0.5846153846153846</v>
+        <v>0.606694560669456</v>
       </c>
       <c r="L27">
-        <v>38</v>
+        <v>145</v>
       </c>
       <c r="M27">
-        <v>38</v>
+        <v>145</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1868,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>27</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1928,13 +1931,13 @@
         <v>60</v>
       </c>
       <c r="K30">
-        <v>0.5732217573221757</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L30">
-        <v>137</v>
+        <v>37</v>
       </c>
       <c r="M30">
-        <v>137</v>
+        <v>37</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1946,7 +1949,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>102</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1954,13 +1957,13 @@
         <v>61</v>
       </c>
       <c r="K31">
-        <v>0.5600000000000001</v>
+        <v>0.5638297872340425</v>
       </c>
       <c r="L31">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="M31">
-        <v>28</v>
+        <v>53</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1972,7 +1975,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>22</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1980,13 +1983,13 @@
         <v>62</v>
       </c>
       <c r="K32">
-        <v>0.5142857142857142</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="L32">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="M32">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1998,7 +2001,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -2006,13 +2009,13 @@
         <v>63</v>
       </c>
       <c r="K33">
-        <v>0.5056179775280899</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="L33">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="M33">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2024,7 +2027,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>44</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -2058,13 +2061,13 @@
         <v>65</v>
       </c>
       <c r="K35">
-        <v>0.4222222222222222</v>
+        <v>0.449438202247191</v>
       </c>
       <c r="L35">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="M35">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2076,7 +2079,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>26</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -2084,13 +2087,13 @@
         <v>66</v>
       </c>
       <c r="K36">
-        <v>0.3725490196078431</v>
+        <v>0.4313725490196079</v>
       </c>
       <c r="L36">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="M36">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2102,7 +2105,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -2110,13 +2113,13 @@
         <v>67</v>
       </c>
       <c r="K37">
-        <v>0.3698630136986301</v>
+        <v>0.3150684931506849</v>
       </c>
       <c r="L37">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="M37">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2128,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -2136,13 +2139,13 @@
         <v>68</v>
       </c>
       <c r="K38">
-        <v>0.34375</v>
+        <v>0.3125</v>
       </c>
       <c r="L38">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M38">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2154,7 +2157,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -2162,13 +2165,13 @@
         <v>69</v>
       </c>
       <c r="K39">
-        <v>0.2948717948717949</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="L39">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M39">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2180,7 +2183,33 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>55</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K40">
+        <v>0.005954246317768724</v>
+      </c>
+      <c r="L40">
+        <v>19</v>
+      </c>
+      <c r="M40">
+        <v>29</v>
+      </c>
+      <c r="N40">
+        <v>0.66</v>
+      </c>
+      <c r="O40">
+        <v>0.34</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>3172</v>
       </c>
     </row>
   </sheetData>
